--- a/instr/TC MIY 5.xlsx
+++ b/instr/TC MIY 5.xlsx
@@ -714,25 +714,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,6 +726,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,6 +741,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1097,7 +1097,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1110,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1122,455 +1122,492 @@
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="0.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="10"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" ht="12.75">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="14" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="10"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="10"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="14" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="10"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="28" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="10"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="10"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="10"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="10"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
       <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
       <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="5">
         <v>111111</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
       <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="5">
         <v>111111</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" ht="12.75">
       <c r="A17" s="4">
         <v>5</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="10"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" ht="12.75">
       <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="10"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="13.5" thickBot="1">
       <c r="A19" s="4">
         <v>7</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="13.5" thickBot="1">
       <c r="A20" s="4">
         <v>8</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="5">
         <v>663333333</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="25"/>
+      <c r="G20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="A4:D4"/>
@@ -1587,43 +1624,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="I13:I20">
